--- a/Input/Specific Examer.xlsx
+++ b/Input/Specific Examer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EBF09-BF5F-44A3-BB5B-C2F04418DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC17AB0-453C-4E85-93FE-4CA983BF7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tunayoshi</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{1E71CA32-AA06-4141-BBAD-BFB4A6127919}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式
+任教年級: 老師</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FE882A7A-E6A0-44E3-9944-8C039C0EC312}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式
+老師: 時數比例</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>English Speaking
 主考官</t>
@@ -163,13 +203,40 @@
   </si>
   <si>
     <t>TSYE</t>
+  </si>
+  <si>
+    <t>特殊時數</t>
+  </si>
+  <si>
+    <t>CLC: 0.25</t>
+  </si>
+  <si>
+    <t>NSW: 0.25</t>
+  </si>
+  <si>
+    <t>OCW: 0.25</t>
+  </si>
+  <si>
+    <t>HLY: 0.5</t>
+  </si>
+  <si>
+    <t>TSW: 0</t>
+  </si>
+  <si>
+    <t>NYK: 0</t>
+  </si>
+  <si>
+    <t>FCH: 0</t>
+  </si>
+  <si>
+    <t>LSC: 0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +251,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +425,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,21 +707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="11" width="16.6640625" customWidth="1"/>
+    <col min="4" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -673,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>12</v>
@@ -681,13 +755,16 @@
       <c r="K1" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -708,16 +785,19 @@
         <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -740,13 +820,16 @@
       <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -767,13 +850,16 @@
       <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -790,13 +876,16 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -813,13 +902,16 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -836,13 +928,16 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -859,11 +954,14 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -880,11 +978,14 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K9" s="4"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -899,9 +1000,10 @@
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -916,9 +1018,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -933,9 +1036,10 @@
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -950,11 +1054,14 @@
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -963,9 +1070,10 @@
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -976,9 +1084,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -989,9 +1098,10 @@
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1002,9 +1112,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1015,9 +1126,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1028,9 +1140,10 @@
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K19" s="4"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1041,9 +1154,10 @@
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1055,7 +1169,7 @@
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1067,7 +1181,7 @@
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1079,7 +1193,7 @@
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1091,7 +1205,7 @@
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1103,7 +1217,7 @@
       <c r="I25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1115,7 +1229,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1127,7 +1241,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1139,7 +1253,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1151,7 +1265,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1163,7 +1277,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1175,7 +1289,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1286,5 +1400,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Input/Specific Examer.xlsx
+++ b/Input/Specific Examer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC17AB0-453C-4E85-93FE-4CA983BF7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5E57C-0C8A-419F-8C48-685D7AA0CE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8DEDB9EE-848F-4306-9909-C41F88901268}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HALL兩個TA</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>English Speaking
 主考官</t>
@@ -230,13 +244,22 @@
   </si>
   <si>
     <t>LSC: 0.5</t>
+  </si>
+  <si>
+    <t>特殊TA</t>
+  </si>
+  <si>
+    <t>English Speaking HALL TA</t>
+  </si>
+  <si>
+    <t>English Speaking preparation room TA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +281,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +458,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,20 +742,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="12" width="16.6640625" customWidth="1"/>
+    <col min="4" max="15" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -756,10 +790,19 @@
         <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -794,10 +837,19 @@
         <v>37</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -827,9 +879,16 @@
       <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -858,8 +917,11 @@
         <v>39</v>
       </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -884,8 +946,11 @@
         <v>40</v>
       </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -910,8 +975,11 @@
         <v>41</v>
       </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -936,8 +1004,11 @@
         <v>42</v>
       </c>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -960,8 +1031,11 @@
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -984,8 +1058,11 @@
       <c r="J9" s="10"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1002,8 +1079,11 @@
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -1020,8 +1100,11 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1038,8 +1121,11 @@
       <c r="J12" s="10"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -1056,8 +1142,11 @@
       <c r="J13" s="10"/>
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -1072,8 +1161,11 @@
       <c r="J14" s="10"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1086,8 +1178,11 @@
       <c r="J15" s="10"/>
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1100,8 +1195,11 @@
       <c r="J16" s="10"/>
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1114,8 +1212,11 @@
       <c r="J17" s="10"/>
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1128,8 +1229,11 @@
       <c r="J18" s="10"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1142,8 +1246,11 @@
       <c r="J19" s="10"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1156,8 +1263,11 @@
       <c r="J20" s="11"/>
       <c r="K20" s="5"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1169,7 +1279,7 @@
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1181,7 +1291,7 @@
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1193,7 +1303,7 @@
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1205,7 +1315,7 @@
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1217,7 +1327,7 @@
       <c r="I25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1229,7 +1339,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1241,7 +1351,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1253,7 +1363,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1265,7 +1375,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1277,7 +1387,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1289,7 +1399,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/Input/Specific Examer.xlsx
+++ b/Input/Specific Examer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5E57C-0C8A-419F-8C48-685D7AA0CE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B30CEA-0BF0-4F02-8A79-FFFFE93BA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>English Speaking
 主考官</t>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>English Speaking preparation room TA</t>
+  </si>
+  <si>
+    <t>HCS: 0</t>
   </si>
 </sst>
 </file>
@@ -744,18 +747,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="15" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="15" width="16.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -802,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -849,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -921,7 +924,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -950,7 +953,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -979,7 +982,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1008,7 +1011,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1035,7 +1038,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1062,7 +1065,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1075,7 +1078,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
@@ -1083,7 +1088,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -1104,7 +1109,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1125,7 +1130,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -1146,7 +1151,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -1165,7 +1170,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1182,7 +1187,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1199,7 +1204,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1216,7 +1221,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1233,7 +1238,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1250,7 +1255,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1267,7 +1272,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1279,7 +1284,7 @@
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1291,7 +1296,7 @@
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1303,7 +1308,7 @@
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1315,7 +1320,7 @@
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1327,7 +1332,7 @@
       <c r="I25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1339,7 +1344,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1351,7 +1356,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1363,7 +1368,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1375,7 +1380,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1387,7 +1392,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1399,7 +1404,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1411,7 +1416,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1423,7 +1428,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1435,7 +1440,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1447,7 +1452,7 @@
       <c r="I35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1459,7 +1464,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1471,7 +1476,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1483,7 +1488,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1495,7 +1500,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
